--- a/data/ROIs/UKDCEUS035.xlsx
+++ b/data/ROIs/UKDCEUS035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0_Main\2_Quantitative_ultrasound\2_github\BSC\data\ROIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7448BEF-4EAC-4E21-A8E4-5C40DD906609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BF420E-AB87-4202-9EB7-E247DA76F91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
